--- a/js/data_animals.xlsx
+++ b/js/data_animals.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="141">
   <si>
     <t>link</t>
   </si>
@@ -434,6 +434,21 @@
   </si>
   <si>
     <t>relatives</t>
+  </si>
+  <si>
+    <t>The blacktip reef shark patrols its territory in coral lagoons and around the edges of reefs. It often swims in water shallow enough that its triangular, black-tipped top fin protrudes above the surface, presenting a classic shark image.</t>
+  </si>
+  <si>
+    <t>As its name suggests, a sevengill shark has seven pairs of gill slits (most sharks have only five). Its back and sides are reddish brown to silvery gray, or olive-brown and speckled with many small black spots. The shark’s underbelly is cream colored. Other features include a wide head with a blunt nose and only one dorsal (top) fin — most sharks have two.</t>
+  </si>
+  <si>
+    <t>Sharks come in many different shapes and sizes, but people are most familiar with the classic look of a Galapagos shark. Its body is solid, large and torpedo-shaped — an efficient form for swimming. </t>
+  </si>
+  <si>
+    <t>With that wide, thick head shaped like a double-headed hammer, it's easy to identify a hammerhead shark. You can tell it from other hammerheads by the ridges along the front edge of its head. The shark's eyes and nostrils are located at the extreme ends of its head. Perhaps this unusual shape gives the sharks added lift and lets them make sharper turns than other sharks. The location of the eyes may also allow better stereoscopic vision. The broad shape of the head enables the shark's sensing organs, called the ampullae of Lorenzini, to find prey buried in the sand (such as stingrays).</t>
+  </si>
+  <si>
+    <t>The white shark has captured the imagination of people around the world. It’s the Earth's largest predatory fish — and has thrived for more than 11 million years (with immediate ancestors dating back more than 60 million years)! Although this animal is shrouded in myth, the facts about this finned friend are even more fascinating.</t>
   </si>
 </sst>
 </file>
@@ -787,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -856,6 +871,9 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
@@ -881,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -891,6 +909,9 @@
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -916,7 +937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -926,6 +947,9 @@
       <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
@@ -951,7 +975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -961,6 +985,9 @@
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
@@ -986,7 +1013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -995,6 +1022,9 @@
       </c>
       <c r="C6" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>

--- a/js/data_animals.xlsx
+++ b/js/data_animals.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
   <si>
     <t>link</t>
   </si>
@@ -449,6 +449,24 @@
   </si>
   <si>
     <t>The white shark has captured the imagination of people around the world. It’s the Earth's largest predatory fish — and has thrived for more than 11 million years (with immediate ancestors dating back more than 60 million years)! Although this animal is shrouded in myth, the facts about this finned friend are even more fascinating.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>sharks-1</t>
+  </si>
+  <si>
+    <t>sharks-2</t>
+  </si>
+  <si>
+    <t>sharks-3</t>
+  </si>
+  <si>
+    <t>sharks-4</t>
+  </si>
+  <si>
+    <t>sharks-5</t>
   </si>
 </sst>
 </file>
@@ -802,13 +820,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" style="3" customWidth="1"/>
@@ -825,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -862,8 +880,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -900,8 +918,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
+      <c r="A3" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
@@ -938,8 +956,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
+      <c r="A4" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
@@ -976,8 +994,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
+      <c r="A5" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
@@ -1014,8 +1032,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
+      <c r="A6" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>

--- a/js/data_animals.xlsx
+++ b/js/data_animals.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7908"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7908" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sharks" sheetId="2" r:id="rId1"/>
     <sheet name="dolphins" sheetId="3" r:id="rId2"/>
     <sheet name="jellies" sheetId="4" r:id="rId3"/>
+    <sheet name="events" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="160">
   <si>
     <t>link</t>
   </si>
@@ -467,13 +468,52 @@
   </si>
   <si>
     <t>sharks-5</t>
+  </si>
+  <si>
+    <t>imgURL_map</t>
+  </si>
+  <si>
+    <t>events-1</t>
+  </si>
+  <si>
+    <t>Ocean Wonders: Sharks!</t>
+  </si>
+  <si>
+    <t>https://nyaquarium.com/things-to-do/exhibits/ocean-wonders-sharks</t>
+  </si>
+  <si>
+    <t>events-2</t>
+  </si>
+  <si>
+    <t>Aquatheater</t>
+  </si>
+  <si>
+    <t>events-2_map.png</t>
+  </si>
+  <si>
+    <t>events-1_map.png</t>
+  </si>
+  <si>
+    <t>https://nyaquarium.com/things-to-do/exhibits/aquatheater</t>
+  </si>
+  <si>
+    <t>description-1</t>
+  </si>
+  <si>
+    <t>In our interactive show, the bonds our sea lions have with their trainers take center stage. The animals learn behaviors from them that stimulate their natural instincts and aid in their care.</t>
+  </si>
+  <si>
+    <t>Go below the surface and meet the amazing animals, including sharks, rays, sea turtles, and more, that live right off the Coney Island Boardwalk.</t>
+  </si>
+  <si>
+    <t>eventID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +528,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF272B2D"/>
+      <name val="Lato"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -517,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,6 +582,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
@@ -1597,4 +1649,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/js/data_animals.xlsx
+++ b/js/data_animals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7908" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7908" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sharks" sheetId="2" r:id="rId1"/>
@@ -873,7 +873,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1655,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/js/data_animals.xlsx
+++ b/js/data_animals.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\eProject_NexusAquarium\js\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aptech_eProject\eProject_NexusAquarium\js\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7908" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sharks" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="161">
   <si>
     <t>link</t>
   </si>
@@ -497,9 +497,6 @@
     <t>https://nyaquarium.com/things-to-do/exhibits/aquatheater</t>
   </si>
   <si>
-    <t>description-1</t>
-  </si>
-  <si>
     <t>In our interactive show, the bonds our sea lions have with their trainers take center stage. The animals learn behaviors from them that stimulate their natural instincts and aid in their care.</t>
   </si>
   <si>
@@ -507,13 +504,19 @@
   </si>
   <si>
     <t>eventID</t>
+  </si>
+  <si>
+    <t>sfdsfds</t>
+  </si>
+  <si>
+    <t> [        "48 MP, f/1.9, 25mm (wide), 1/1.32\", 1.2µm, PDAF, Laser AF, OIS",        "48 MP, f/4.1, 120mm (periscope telephoto), 1/2.0\", 0.8µm, PDAF, OIS, 5x optical zoom, 120x hybrid zoom",        "12 MP, f/2.0, 50mm (telephoto), 1/2.55\", 1.4µm, Dual Pixel PDAF, 2x optical zoom",        "20 MP, f/2.2, 128˚, 12mm (ultrawide), 1/2.8\", 1.0µm, PDAF"      ],</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,24 +879,24 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="5"/>
-    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="3"/>
+    <col min="12" max="12" width="13.85546875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>141</v>
       </c>
@@ -931,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="210">
       <c r="A2" s="5" t="s">
         <v>142</v>
       </c>
@@ -969,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="330">
       <c r="A3" s="5" t="s">
         <v>143</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="180">
       <c r="A4" s="5" t="s">
         <v>144</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="409.5">
       <c r="A5" s="5" t="s">
         <v>145</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="300">
       <c r="A6" s="5" t="s">
         <v>146</v>
       </c>
@@ -1138,24 +1141,24 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="5"/>
-    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="3"/>
+    <col min="12" max="12" width="13.85546875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="75">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="90">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="75">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="75">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="105">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1393,28 +1396,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="5"/>
-    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="3"/>
+    <col min="12" max="12" width="13.85546875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="60">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="105">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="135">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="135">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="75">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1653,37 +1656,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="51">
       <c r="A2" s="4" t="s">
         <v>148</v>
       </c>
@@ -1691,37 +1694,71 @@
         <v>149</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51">
+      <c r="A5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C5" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/js/data_animals.xlsx
+++ b/js/data_animals.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aptech_eProject\eProject_NexusAquarium\js\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\eProject_NexusAquarium\js\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7908" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sharks" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="184">
   <si>
     <t>link</t>
   </si>
@@ -488,12 +488,6 @@
     <t>Aquatheater</t>
   </si>
   <si>
-    <t>events-2_map.png</t>
-  </si>
-  <si>
-    <t>events-1_map.png</t>
-  </si>
-  <si>
     <t>https://nyaquarium.com/things-to-do/exhibits/aquatheater</t>
   </si>
   <si>
@@ -506,17 +500,92 @@
     <t>eventID</t>
   </si>
   <si>
-    <t>sfdsfds</t>
-  </si>
-  <si>
-    <t> [        "48 MP, f/1.9, 25mm (wide), 1/1.32\", 1.2µm, PDAF, Laser AF, OIS",        "48 MP, f/4.1, 120mm (periscope telephoto), 1/2.0\", 0.8µm, PDAF, OIS, 5x optical zoom, 120x hybrid zoom",        "12 MP, f/2.0, 50mm (telephoto), 1/2.55\", 1.4µm, Dual Pixel PDAF, 2x optical zoom",        "20 MP, f/2.2, 128˚, 12mm (ultrawide), 1/2.8\", 1.0µm, PDAF"      ],</t>
+    <t>Year-round, weather permitting. Show schedule varies seasonally. Check listing in lobby for daily times.</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>3:30pm - 5:30pm</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>Everydat</t>
+  </si>
+  <si>
+    <t>9:00am - 15:30pm</t>
+  </si>
+  <si>
+    <t>imgURL_main1</t>
+  </si>
+  <si>
+    <t>events-1_main1.png</t>
+  </si>
+  <si>
+    <t>imgURL_main2</t>
+  </si>
+  <si>
+    <t>events-1_main2.png</t>
+  </si>
+  <si>
+    <t>events-2_main1.png</t>
+  </si>
+  <si>
+    <t>events-2_main2.png</t>
+  </si>
+  <si>
+    <t>imgURL_sub1</t>
+  </si>
+  <si>
+    <t>imgURL_sub2</t>
+  </si>
+  <si>
+    <t>events-1_sub1.png</t>
+  </si>
+  <si>
+    <t>events-1_sub2.png</t>
+  </si>
+  <si>
+    <t>Open year-round</t>
+  </si>
+  <si>
+    <t>events-1_map.jpg</t>
+  </si>
+  <si>
+    <t>events-2_map.jpg</t>
+  </si>
+  <si>
+    <t>Over 115 marine species, 18 different kinds of sharks and rays, one unforgettable experience. The award-winning Donald Zucker and Barbara Hrbek Zucker Ocean Wonders: Sharks! exhibit brings some of the most misunderstood animals out of the depths and nose-to-nose with visitors like you!</t>
+  </si>
+  <si>
+    <t>note1</t>
+  </si>
+  <si>
+    <t>How do sharks breathe? How do they reproduce? How do they move? How close do they live to NYC? (Hint: very). Explore the exhibit for answers, fun facts, and close-ups of the faces that swim beneath the surface!</t>
+  </si>
+  <si>
+    <t>note2</t>
+  </si>
+  <si>
+    <t>not3</t>
+  </si>
+  <si>
+    <t>imgURL_main3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,11 +655,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -876,27 +954,27 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="5"/>
-    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="12" max="12" width="13.88671875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>141</v>
       </c>
@@ -934,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="210">
+    <row r="2" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>142</v>
       </c>
@@ -972,7 +1050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="330">
+    <row r="3" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>143</v>
       </c>
@@ -1010,7 +1088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="180">
+    <row r="4" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>144</v>
       </c>
@@ -1048,7 +1126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.5">
+    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>145</v>
       </c>
@@ -1086,7 +1164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="300">
+    <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>146</v>
       </c>
@@ -1141,24 +1219,24 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="5"/>
-    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="5" customWidth="1"/>
     <col min="9" max="9" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="12" max="12" width="13.88671875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75">
+    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1234,7 +1312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="90">
+    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1272,7 +1350,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="75">
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1310,7 +1388,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="75">
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1348,7 +1426,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="105">
+    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1400,24 +1478,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="5"/>
-    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="5" customWidth="1"/>
     <col min="9" max="9" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="12" max="12" width="13.88671875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1455,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60">
+    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1493,7 +1571,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="105">
+    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1531,7 +1609,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="135">
+    <row r="4" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1569,7 +1647,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="135">
+    <row r="5" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1607,7 +1685,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="75">
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1656,109 +1734,161 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="15.44140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="9" customWidth="1"/>
+    <col min="9" max="10" width="13.44140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.109375" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:16" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="51">
-      <c r="A5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="G3" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/js/data_animals.xlsx
+++ b/js/data_animals.xlsx
@@ -473,18 +473,12 @@
     <t>imgURL_map</t>
   </si>
   <si>
-    <t>events-1</t>
-  </si>
-  <si>
     <t>Ocean Wonders: Sharks!</t>
   </si>
   <si>
     <t>https://nyaquarium.com/things-to-do/exhibits/ocean-wonders-sharks</t>
   </si>
   <si>
-    <t>events-2</t>
-  </si>
-  <si>
     <t>Aquatheater</t>
   </si>
   <si>
@@ -579,6 +573,12 @@
   </si>
   <si>
     <t>imgURL_main3</t>
+  </si>
+  <si>
+    <t>event-1</t>
+  </si>
+  <si>
+    <t>event-2</t>
   </si>
 </sst>
 </file>
@@ -1736,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1758,7 +1758,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2</v>
@@ -1767,40 +1767,40 @@
         <v>46</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>147</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="O1" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>0</v>
@@ -1808,77 +1808,77 @@
     </row>
     <row r="2" spans="1:16" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -1887,7 +1887,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/js/data_animals.xlsx
+++ b/js/data_animals.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="188">
   <si>
     <t>link</t>
   </si>
@@ -491,9 +491,6 @@
     <t>Go below the surface and meet the amazing animals, including sharks, rays, sea turtles, and more, that live right off the Coney Island Boardwalk.</t>
   </si>
   <si>
-    <t>eventID</t>
-  </si>
-  <si>
     <t>Year-round, weather permitting. Show schedule varies seasonally. Check listing in lobby for daily times.</t>
   </si>
   <si>
@@ -579,6 +576,21 @@
   </si>
   <si>
     <t>event-2</t>
+  </si>
+  <si>
+    <t>ticket_adult_quantity</t>
+  </si>
+  <si>
+    <t>ticket_adult_price</t>
+  </si>
+  <si>
+    <t>ticket_child_quantity</t>
+  </si>
+  <si>
+    <t>ticket_child_price</t>
+  </si>
+  <si>
+    <t>ticket_summary</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1228,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,7 +1250,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1474,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1734,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1753,12 +1765,18 @@
     <col min="9" max="10" width="13.44140625" style="9" customWidth="1"/>
     <col min="11" max="11" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="16.109375" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="9"/>
+    <col min="16" max="16" width="8.88671875" style="9"/>
+    <col min="17" max="17" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" style="9" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2</v>
@@ -1767,48 +1785,63 @@
         <v>46</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>147</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="M1" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="Q1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>148</v>
@@ -1817,44 +1850,59 @@
         <v>153</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="M2" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9">
+        <v>20</v>
+      </c>
+      <c r="S2" s="9">
+        <v>0</v>
+      </c>
+      <c r="T2" s="9">
+        <v>10</v>
+      </c>
+      <c r="U2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>150</v>
@@ -1863,22 +1911,22 @@
         <v>152</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -1889,6 +1937,21 @@
       <c r="P3" s="11" t="s">
         <v>151</v>
       </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>15</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>10</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/js/data_animals.xlsx
+++ b/js/data_animals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7908" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7908" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sharks" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="197">
   <si>
     <t>link</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Other sharks, rays, skates; Family: Carcharhinidae (requiem sharks)</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>imgURL</t>
   </si>
   <si>
@@ -591,6 +588,36 @@
   </si>
   <si>
     <t>ticket_summary</t>
+  </si>
+  <si>
+    <t>dolphin-1</t>
+  </si>
+  <si>
+    <t>dolphin-2</t>
+  </si>
+  <si>
+    <t>dolphin-3</t>
+  </si>
+  <si>
+    <t>dolphin-4</t>
+  </si>
+  <si>
+    <t>dolphin-5</t>
+  </si>
+  <si>
+    <t>jelly-1</t>
+  </si>
+  <si>
+    <t>jelly-2</t>
+  </si>
+  <si>
+    <t>jelly-3</t>
+  </si>
+  <si>
+    <t>jelly-4</t>
+  </si>
+  <si>
+    <t>jelly-5</t>
   </si>
 </sst>
 </file>
@@ -988,37 +1015,37 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
@@ -1026,16 +1053,16 @@
     </row>
     <row r="2" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
@@ -1047,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -1064,16 +1091,16 @@
     </row>
     <row r="3" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
@@ -1082,36 +1109,36 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
@@ -1120,36 +1147,36 @@
         <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>6</v>
@@ -1158,36 +1185,36 @@
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
@@ -1196,22 +1223,22 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1228,12 +1255,12 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="52.109375" style="3" customWidth="1"/>
@@ -1250,230 +1277,230 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1486,13 +1513,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="52.109375" style="3" customWidth="1"/>
@@ -1509,230 +1536,230 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="J3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="I4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1748,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1776,113 +1803,113 @@
   <sheetData>
     <row r="1" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="M1" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>171</v>
-      </c>
       <c r="M2" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
@@ -1902,31 +1929,31 @@
     </row>
     <row r="3" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -1935,7 +1962,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>

--- a/js/data_animals.xlsx
+++ b/js/data_animals.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\eProject_NexusAquarium\js\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aptech_eProject\eProject_NexusAquarium\js\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7908" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="sharks" sheetId="2" r:id="rId1"/>
@@ -416,9 +416,6 @@
     <t>https://www.montereybayaquarium.org/animals/animals-a-to-z/crown-jelly</t>
   </si>
   <si>
-    <t>animal-type</t>
-  </si>
-  <si>
     <t>habitat</t>
   </si>
   <si>
@@ -618,13 +615,16 @@
   </si>
   <si>
     <t>jelly-5</t>
+  </si>
+  <si>
+    <t>animalType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,30 +992,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="5"/>
-    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="3"/>
+    <col min="12" max="12" width="13.85546875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1027,33 +1027,33 @@
         <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="210">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -1062,7 +1062,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
@@ -1089,9 +1089,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="330">
       <c r="A3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
@@ -1100,7 +1100,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
@@ -1127,9 +1127,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="180">
       <c r="A4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1138,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
@@ -1165,9 +1165,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="409.5">
       <c r="A5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>26</v>
@@ -1176,7 +1176,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>6</v>
@@ -1203,9 +1203,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="300">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>32</v>
@@ -1214,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
@@ -1255,29 +1255,29 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="5"/>
-    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="3"/>
+    <col min="12" max="12" width="13.85546875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1289,33 +1289,33 @@
         <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="75">
       <c r="A2" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>46</v>
@@ -1351,9 +1351,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="90">
       <c r="A3" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>54</v>
@@ -1389,9 +1389,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="75">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>62</v>
@@ -1427,9 +1427,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="75">
       <c r="A5" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>69</v>
@@ -1465,9 +1465,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="105">
       <c r="A6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>77</v>
@@ -1513,30 +1513,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="5"/>
-    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="3"/>
+    <col min="12" max="12" width="13.85546875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1548,33 +1548,33 @@
         <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="60">
       <c r="A2" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>85</v>
@@ -1610,9 +1610,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="105">
       <c r="A3" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>96</v>
@@ -1648,9 +1648,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="135">
       <c r="A4" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>105</v>
@@ -1686,9 +1686,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="135">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>113</v>
@@ -1724,9 +1724,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="75">
       <c r="A6" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>120</v>
@@ -1779,31 +1779,31 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="15.44140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="37.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="9"/>
+    <col min="2" max="2" width="15.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="9" customWidth="1"/>
-    <col min="9" max="10" width="13.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="9" customWidth="1"/>
+    <col min="9" max="10" width="13.42578125" style="9" customWidth="1"/>
     <col min="11" max="11" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="9"/>
-    <col min="17" max="17" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" style="9" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" style="9" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="9"/>
+    <col min="12" max="15" width="16.140625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="9"/>
+    <col min="17" max="17" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="9" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="30">
       <c r="A1" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2</v>
@@ -1812,104 +1812,104 @@
         <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="M1" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="U1" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:21" ht="315">
       <c r="A2" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="M2" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
@@ -1927,33 +1927,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="120">
       <c r="A3" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -1962,7 +1962,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
